--- a/workflow_creation/config/config.xlsx
+++ b/workflow_creation/config/config.xlsx
@@ -8,16 +8,18 @@
   <sheets>
     <sheet name="options" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="params" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="extraction" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="adaptation_mapping" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="langtag_mapp_overriding" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="paths" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="TRA" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ADA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ADA_mapping" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="tag_mapping_overriding" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>key</t>
   </si>
@@ -28,10 +30,16 @@
     <t>description</t>
   </si>
   <si>
+    <t>deploy_init_bundle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool: If this is TRUE, the init bundle (if found) will be deployed in the workflows folder and all tasks and version folders will be created.</t>
+  </si>
+  <si>
     <t>create_omtpkg_instances</t>
   </si>
   <si>
-    <t xml:space="preserve">Bool: If this is TRUE, an OmegaT project package will be created for each version, putting files in /source folder of template (req: path_to_omtpkg_template needs to be enabled). Only the folder structure will be created. </t>
+    <t xml:space="preserve">Bool: If this is TRUE, an OmegaT project package will be created for each version, based on the omtpkg emplate (req: path_to_omtpkg_template needs to be enabled) and files will be added to the /source folder. If set to FALSE, only the folder structure will be created. </t>
   </si>
   <si>
     <t>extraction</t>
@@ -52,10 +60,34 @@
     <t xml:space="preserve">Bool: If a folder exists already, it will not be touched. The PM must either delete before or set this option to TRUE</t>
   </si>
   <si>
+    <t>overwrite_packages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool: If a package exists already, it will not be touched. The PM must either delete it before initiation or set this option to TRUE</t>
+  </si>
+  <si>
+    <t>double_xlat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool: If this option is set to TRUE, the packages for translation will have a suffix (T1 or T2).</t>
+  </si>
+  <si>
+    <t>double_xlat_merge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool: If this option is set to TRUE, the TMs from the two translations (if found) will be merged in a third package for the reconciliation task.</t>
+  </si>
+  <si>
+    <t>delete_removed_versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bool: If this option is set to TRUE, existing version folders that are not found in the list of languages (lll-CCC.txt) will be deleted.</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
-    <t>PaRIS</t>
+    <t>OECD-PaRIS</t>
   </si>
   <si>
     <t xml:space="preserve">String: Project name.</t>
@@ -73,7 +105,7 @@
     <t>workflow_parent_dir</t>
   </si>
   <si>
-    <t>{root}/08_WORKFLOWS</t>
+    <t>{root}/05_WORKFLOWS</t>
   </si>
   <si>
     <t xml:space="preserve">Path: Path template where the init bundle will be unpacked as the workflow folder (workflow folder name = init bundle name without the extension)</t>
@@ -100,40 +132,139 @@
     <t>{init_bundle}/00_source/files</t>
   </si>
   <si>
-    <t>omtpkg_instance_name</t>
+    <t>omtpkg_name_template</t>
   </si>
   <si>
     <t>{project}_{workflow_name}_{version}_OMT.omt</t>
   </si>
   <si>
-    <t xml:space="preserve">String: OmegaT project package name template.</t>
-  </si>
-  <si>
-    <t>omtpkg_instance_dest_dir</t>
-  </si>
-  <si>
-    <t>01_To_Translator</t>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>#omtpkg_instance_dest_dir</t>
   </si>
   <si>
     <t xml:space="preserve">Folder: Subfolder inside the version folder where the package instance should be compiled (full path would be {workflow_parent_dir}/{workflow_name}/{task}/{version}/01_ToTranslator)</t>
   </si>
   <si>
+    <t>omtpkg_toXlat1_dir</t>
+  </si>
+  <si>
+    <t>01a_to_translator_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder: The name of the folder where the OmegaT package for Translator 1 must be written.</t>
+  </si>
+  <si>
+    <t>omtpkg_toXlat2_dir</t>
+  </si>
+  <si>
+    <t>02a_to_translator_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder: The name of the folder where the OmegaT package for Translator 2 must be written.</t>
+  </si>
+  <si>
+    <t>omtpkg_fromXlat1_dir</t>
+  </si>
+  <si>
+    <t>01b_from_translator_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder: The name of the folder where the OmegaT package from Translator 1 is expected.</t>
+  </si>
+  <si>
+    <t>omtpkg_fromXlat2_dir</t>
+  </si>
+  <si>
+    <t>02b_from_translator_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder: The name of the folder where the OmegaT package from Translator 2 is expected.</t>
+  </si>
+  <si>
+    <t>omtpkg_toRec_dir</t>
+  </si>
+  <si>
+    <t>03a_to_reconciler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Folder: The name of the folder where the OmegaT package for the Reconciler must be written.</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>/media/data/data/company/IPSOS/OECD_PaRIS/01_PRE-TEST</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>ces-CZE</t>
+  </si>
+  <si>
+    <t>est-EST</t>
+  </si>
+  <si>
+    <t>rus-EST</t>
+  </si>
+  <si>
+    <t>ita-ITA</t>
+  </si>
+  <si>
+    <t>nld-NLD</t>
+  </si>
+  <si>
+    <t>nob-NOR</t>
+  </si>
+  <si>
+    <t>por-PRT</t>
+  </si>
+  <si>
+    <t>slv-SVN</t>
+  </si>
+  <si>
+    <t>deu-CHE</t>
+  </si>
+  <si>
+    <t>fra-FRA</t>
+  </si>
+  <si>
+    <t>ara-SAU</t>
+  </si>
+  <si>
+    <t>nld-BEL</t>
+  </si>
+  <si>
+    <t>fra-BEL</t>
+  </si>
+  <si>
+    <t>fra-CAN</t>
+  </si>
+  <si>
+    <t>fra-LUX</t>
+  </si>
+  <si>
+    <t>deu-LUX</t>
+  </si>
+  <si>
+    <t>fra-CHE</t>
+  </si>
+  <si>
+    <t>ita-CHE</t>
+  </si>
+  <si>
     <t>base</t>
   </si>
   <si>
-    <t>adap</t>
-  </si>
-  <si>
-    <t>fra-FRA</t>
-  </si>
-  <si>
-    <t>fra-BEL</t>
+    <t>borrowing</t>
   </si>
   <si>
     <t>deu-DEU</t>
-  </si>
-  <si>
-    <t>deu-LUX</t>
   </si>
   <si>
     <t>memoQ</t>
@@ -203,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -213,19 +344,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,17 +778,17 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <pane state="frozen" topLeftCell="B9" xSplit="1" ySplit="8"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.25390625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="26.25"/>
     <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="7.375"/>
-    <col customWidth="1" min="3" max="3" width="145.75390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="145.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -676,48 +799,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="14.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="b">
-        <v>1</v>
+      <c r="B4" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="14.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -731,19 +909,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView workbookViewId="0" zoomScale="115">
       <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.875"/>
-    <col customWidth="1" min="2" max="2" style="1" width="44.125"/>
-    <col customWidth="1" min="3" max="3" width="48.25390625"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="27.875"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="1" width="40.75390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="48.25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,93 +932,154 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="1" ht="14.25" hidden="1">
-      <c r="A5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="9" customFormat="1" ht="14.25" hidden="1">
-      <c r="A6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="1" ht="14.25" hidden="1">
-      <c r="A7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" hidden="1">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" hidden="1">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" hidden="1">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="1" ht="14.25">
+      <c r="A9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1" disablePrompts="0">
+    <dataValidation sqref="B3" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
+      <formula1>paths!B1:B2</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
@@ -855,8 +1094,28 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="57.875"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
@@ -869,33 +1128,69 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
+      <c r="A2" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25">
+      <c r="A12" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -911,38 +1206,147 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100">
       <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <pane state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="9.625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="10.00390625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="9.75390625"/>
-    <col customWidth="1" min="3" max="3" width="21.375"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="24.25390625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3"/>
+      <c r="A2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
